--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
@@ -10197,7 +10197,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -10221,57 +10221,57 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,470 +10694,470 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>11</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>12</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>11</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>13</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>11</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>14</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>11</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>15</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>11</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>16</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>11</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>17</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>11</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>18</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>11</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>19</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>11</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>20</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -14646,158 +14646,158 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/67/word_level_predictions_67.xlsx
@@ -10197,81 +10197,81 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10694,470 +10694,470 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>12</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>16</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>12</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>17</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>12</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>18</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>12</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>19</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>12</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>20</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>12</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>21</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>12</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>22</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>12</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>23</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>12</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>24</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>12</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>25</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>12</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>26</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>12</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>27</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>12</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>28</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>12</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>29</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14646,158 +14646,158 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
